--- a/biology/Botanique/Alentejo_(DOC)/Alentejo_(DOC).xlsx
+++ b/biology/Botanique/Alentejo_(DOC)/Alentejo_(DOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Alentejo est une appellation d'origine (DOC) portugaise produite dans le terroir viticole de l'Alentejo, situé dans le sud du pays. Ces vignobles couvrent toutes les zones géographiques de la sous-région de Borba, Évora Amareleja, Moura, Portalegre, Redondo, Reguengos et Vidigueira. 
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La culture de la vigne remonte à la colonisation romaine, comme en témoignent les restes trouvés dans les ruines de São Cucufate près Vidigueira et certaines caves d'époque romaine. Certains producteurs de la région continuent encore aujourd'hui à faire du vin dans des grands dolium comme au temps des Romains (vinho de talha) [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La culture de la vigne remonte à la colonisation romaine, comme en témoignent les restes trouvés dans les ruines de São Cucufate près Vidigueira et certaines caves d'époque romaine. Certains producteurs de la région continuent encore aujourd'hui à faire du vin dans des grands dolium comme au temps des Romains (vinho de talha) .
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Sous-régions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ce vignoble est subdivisé en huit sous-régions d'appellation (DOC) : 
 Alentejo Borba,
@@ -580,7 +596,9 @@
           <t>Encépagement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cépages rouges : Alfrocheiro, Tinta roriz, Castelão (Periquita), Grossa, Moreto, Tinta caiada, Trincadeira (Tinta amarela).
 Cépages blancs : Antão Vaz, Arinto (Pedernã), Fernão Pires, Malvasia rei, Perrum, Rabo de Ovelha, Roupeiro, Trincadeira das Pratas.</t>
